--- a/importData.xlsx
+++ b/importData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardxie/IdeaProjects/NEUCSYE6200GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652C1A0-FC10-A74E-9BF5-3A3355756D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87151AA-35E6-F74C-9CA6-3899C7B19663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{A58B9792-AC66-DE46-AB58-E81E6A411217}"/>
+    <workbookView xWindow="5860" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{A58B9792-AC66-DE46-AB58-E81E6A411217}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
     <sheet name="teacher" sheetId="2" r:id="rId2"/>
+    <sheet name="tmp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -50,15 +51,37 @@
   </si>
   <si>
     <t>bb</t>
+  </si>
+  <si>
+    <t>age(month)</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>Hib,2019.06.18:2018.09.26,DTaP,Polio,HepatitisB,MMR,Varicella</t>
+  </si>
+  <si>
+    <t>Hib,2019.06.18:2018.09.26,DTaP,,Polio,,HepatitisB,,MMR,,Varicella, ,</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,28 +425,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A74826-702E-1B48-A9DC-2A550047D558}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="88.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -432,34 +465,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A18F708-6198-E948-951B-A685C89095F9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD2DBFF-3B6C-3743-871E-E8061A34B8B2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="153.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/importData.xlsx
+++ b/importData.xlsx
@@ -1,42 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardxie/IdeaProjects/NEUCSYE6200GroupProject/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87151AA-35E6-F74C-9CA6-3899C7B19663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{A58B9792-AC66-DE46-AB58-E81E6A411217}"/>
+    <workbookView windowWidth="22368" windowHeight="9407" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
     <sheet name="teacher" sheetId="2" r:id="rId2"/>
     <sheet name="tmp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -44,59 +24,462 @@
     <t>age</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hib,2021.06.18,DTaP,,Polio,,HepatitisB,2021.10.03,MMR,2020.08.27,Varicella, ,</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Hib,2020.03.14,DTaP,2020.09.26,Polio,2021.09.26,HepatitisB,2021.09.26,MMR,2020.03.19,Varicella,2020.09.26:2021.01.02,</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Hib,2021.05.03,DTaP,2021.07.20,Polio,2021.10.24,HepatitisB,,MMR,,Varicella, 2021.09.15,</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hib,,DTaP,,Polio,2020.06.20:2020.08.29,HepatitisB,2018.09.26,MMR,,Varicella, ,</t>
+  </si>
+  <si>
+    <t>Elain</t>
+  </si>
+  <si>
+    <t>Hib,2019.06.30,DTaP,2018.09.26,Polio,,HepatitisB,2021.11.26,MMR,2018.09.26,Varicella,2021.10.14,</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Hib,2019.07.13,DTaP,,Polio,2021.08.26:2021.11.02,HepatitisB,2021.04.25:2021.06.01,MMR,2020.03.19,Varicella,2020.09.26:2021.01.02,</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
+    <t>Hib,,DTaP,2020.09.26,Polio,2018.07.27,HepatitisB,,MMR,2017.04.20,Varicella,2021.05.26:2021.08.30,</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Hib,2020.03.19,DTaP,2021.09.17,Polio,,HepatitisB,2021.11.26,MMR,,Varicella, ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven </t>
+  </si>
+  <si>
+    <t>Hib,2013.05.25,DTaP,2020.03.19,Polio,,HepatitisB,2017.03.19,MMR,,Varicella,2016.07.20:2016.11.20,</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Hib,2012.06.18,DTaP,,Polio,,HepatitisB,2014.02.22:2014.03.30,MMR,2014.05.25,Varicella,2016.07.20:2016.11.20 ,</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Hib,2015.02.20,DTaP,,Polio,,HepatitisB,,MMR,2013.05.25,Varicella,2016.07.20:2016.11.20 ,</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Hib,,DTaP,2010.04.22,Polio,,HepatitisB,2013.05.22:2013.06.30,MMR,2013.03.25,Varicella,2016.07.20:2016.11.20 ,</t>
+  </si>
+  <si>
+    <t>age(month)</t>
   </si>
   <si>
     <t>aa</t>
   </si>
   <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>age(month)</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
     <t>Hib,2019.06.18:2018.09.26,DTaP,Polio,HepatitisB,MMR,Varicella</t>
-  </si>
-  <si>
-    <t>Hib,2019.06.18:2018.09.26,DTaP,,Polio,,HepatitisB,,MMR,,Varicella, ,</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,25 +487,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -171,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,26 +873,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -256,23 +908,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,29 +1049,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A74826-702E-1B48-A9DC-2A550047D558}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="88.6640625" customWidth="1"/>
+    <col min="3" max="3" width="152.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" ht="23.4" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,39 +1074,118 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="23.4" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="23.4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="23.4" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="23.4" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="23.4" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="23.4" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="23.4" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A18F708-6198-E948-951B-A685C89095F9}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="128.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" ht="23.4" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,68 +1193,98 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" ht="23.4" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD2DBFF-3B6C-3743-871E-E8061A34B8B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
     <col min="3" max="3" width="153.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" ht="23.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/importData.xlsx
+++ b/importData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Hib,2020.03.19,DTaP,2021.09.17,Polio,,HepatitisB,2021.11.26,MMR,,Varicella, ,</t>
+  </si>
+  <si>
+    <t>Credits</t>
   </si>
   <si>
     <t xml:space="preserve">Steven </t>
@@ -114,8 +117,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -148,6 +151,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +167,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,47 +213,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -242,37 +245,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +506,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,6 +546,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,7 +591,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,130 +609,130 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,18 +1177,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="128.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.4" spans="1:3">
+    <row r="1" ht="23.4" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1195,49 +1198,64 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="23.4" spans="1:3">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1274,13 +1292,13 @@
     </row>
     <row r="2" ht="23.4" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/importData.xlsx
+++ b/importData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -75,6 +75,12 @@
     <t>Hib,2020.03.19,DTaP,2021.09.17,Polio,,HepatitisB,2021.11.26,MMR,,Varicella, ,</t>
   </si>
   <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Hib,2019.06.18:2018.09.26,DTaP,,Polio,,HepatitisB,,MMR,,Varicella, ,</t>
+  </si>
+  <si>
     <t>Credits</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
   </si>
   <si>
     <t>Hib,,DTaP,2010.04.22,Polio,,HepatitisB,2013.05.22:2013.06.30,MMR,2013.03.25,Varicella,2016.07.20:2016.11.20 ,</t>
+  </si>
+  <si>
+    <t>Hib,2019.05.23,DTaP,,Polio,,HepatitisB,,MMR,,Varicella, ,</t>
   </si>
   <si>
     <t>age(month)</t>
@@ -116,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,13 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -153,6 +155,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,13 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -181,17 +214,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,10 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -246,6 +270,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,29 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +306,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,163 +456,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +497,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,175 +597,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,15 +1067,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="152.7" customWidth="1"/>
+    <col min="3" max="3" width="152.7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:3">
@@ -1166,6 +1175,20 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1200,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="128.4" customWidth="1"/>
   </cols>
@@ -1199,18 +1222,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="23.4" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1218,13 +1241,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1232,13 +1255,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1246,16 +1269,310 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="23.4" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="23.4" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="23.4" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="23.4" spans="1:4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1592,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="24.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="153.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1666666666667" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="153.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.4" spans="1:3">
@@ -1284,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1292,13 +1609,13 @@
     </row>
     <row r="2" ht="23.4" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/importData.xlsx
+++ b/importData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wzw/NEUCSYE6200GroupProject/"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -126,12 +126,19 @@
   <si>
     <t>Hib,2021.06.18:2020.03.14,DTaP,,Polio,,HepatitisB,2021.10.03,MMR,2020.08.27,Varicella, ,</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>DTaP,2021.12.14,HepatitisB,2022.01.01,Hib,,MMR,,Polio,,Varicella, ,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -453,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -461,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="152.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="152.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -575,6 +582,17 @@
       </c>
       <c r="D10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +611,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="128.33203125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="128.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
@@ -976,8 +994,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="153.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="153.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23">
